--- a/HW4/Results.xlsx
+++ b/HW4/Results.xlsx
@@ -22,6 +22,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>lg x of x Threads</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Sorting Networks v1</t>
+  </si>
+  <si>
+    <t>Sorting Networks v2</t>
+  </si>
+  <si>
+    <t>Fastest Time</t>
+  </si>
+  <si>
+    <t>% improvement</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,11 +554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344667384"/>
-        <c:axId val="344669736"/>
+        <c:axId val="227050792"/>
+        <c:axId val="227048048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344667384"/>
+        <c:axId val="227050792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,6 +579,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> x of x threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -623,12 +676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344669736"/>
+        <c:crossAx val="227048048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344669736"/>
+        <c:axId val="227048048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344667384"/>
+        <c:crossAx val="227050792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,14 +1741,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
@@ -1865,6 +1937,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
       <c r="B14">
         <f>MIN(B2:B13)</f>
         <v>0.75239999999999996</v>
@@ -1879,6 +1954,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
       <c r="C15">
         <f>(B14-C14)/B14*100</f>
         <v>-133.43965975544924</v>
@@ -1886,6 +1964,12 @@
       <c r="D15">
         <f>100*(B14-D14)/B14</f>
         <v>-361.61616161616161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>(D14-C14)/C14</f>
+        <v>0.97745388294238211</v>
       </c>
     </row>
   </sheetData>
